--- a/biology/Botanique/Lotier_des_marais/Lotier_des_marais.xlsx
+++ b/biology/Botanique/Lotier_des_marais/Lotier_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lotier des marais
 Le Lotier des marais ou lotier des fanges (Lotus pedunculatus Cav.) est une espèce de plantes herbacées vivaces de la famille des Fabaceae.
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom scientifique
-Nom accepté : Lotus pedunculatus Cav. (1793).
-Noms vernaculaires
-Cette plante est également appelée lotier des marais, lotier des fanges, lotier pédonculé, lotier velu. En anglais, big trefoil ou greater bird’s-foot-treefoil. En allemand, Sumpf-Hornklee.
-Etymologie
-Le nom de genre Lotus tire son origine du mot grec « lôtos », utilisé pour désigner plusieurs fabacées d’intérêt fourrager. Le terme « pedunculatus », quant à lui, décrit les pédoncules de grande taille des fleurs de cette plante.
+          <t>Nom scientifique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom accepté : Lotus pedunculatus Cav. (1793).
 </t>
         </is>
       </c>
@@ -545,26 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractéristiques</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Port général
-Lotus pedunculatus est une plante herbacée vivace dont la taille varie entre 30 et 80 cm. Son port est dressé mais sa souche est rampante et stolonifère[1].
-Appareil végétatif
-La plante peut être glabrescente ou velue. Ses tiges sont dressées ou ascendantes et creuses.
-Les feuilles sont composées, formées de 3 folioles obovales en coin[1]. Leur longueur se situe entre 15 et 20 mm. Les folioles des feuilles supérieures sont moins de 3 fois plus longues que larges[2]. Deux stipules ovales de même taille et apparence que les feuilles sont présents.
-Appareil reproducteur
-Les fleurs sont de type papilionacé et jaunes. Elles sont regroupées en ombelles comportant entre 6 et 12 fleurs de 10-18 mm[2].
-Les pédoncules sont épais et leur longueur vaut 3 à 4 celle de la feuille.
-Le calice est en cloche, ses dents sont étalées dans le bouton, lancéolées-linéaires, de même longueur que le tube. Les ailes sont obovales, dont le bord inférieur est quasiment droit et celui-ci recouvre la carène. Cette dernière est peu courbée, en un angle fortement obtus
-Les fruits sont des gousses linéaires à cylindriques de 15-30 mm et rectilignes[2].
-Espèces voisines
-Lotus corniculatus ressemble fort à L. pedunculatus. La tige (pleine chez L. corniculatus) et le nombre de fleurs par inflorescence (maximum 6 fleurs par ombelle chez L. corniculatus) sont 2 critères principaux permettant de les distinguer. 
-Clé dichotomique[3] :
-Plante dépourvue de stolons, à tige pleine ou très peu creuse. Ombelle à 3-6 fleurs. Dents du calice courbées vers l'intérieur avant la floraison : L. corniculatus
-Plante à stolons, à tige largement creuse. Ombelle à 5-12 fleurs. Dents du calice étalées avant la floraison : L. pedunculatus</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est également appelée lotier des marais, lotier des fanges, lotier pédonculé, lotier velu. En anglais, big trefoil ou greater bird’s-foot-treefoil. En allemand, Sumpf-Hornklee.
+</t>
         </is>
       </c>
     </row>
@@ -589,13 +595,209 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Etymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Lotus tire son origine du mot grec « lôtos », utilisé pour désigner plusieurs fabacées d’intérêt fourrager. Le terme « pedunculatus », quant à lui, décrit les pédoncules de grande taille des fleurs de cette plante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Port général</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lotus pedunculatus est une plante herbacée vivace dont la taille varie entre 30 et 80 cm. Son port est dressé mais sa souche est rampante et stolonifère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante peut être glabrescente ou velue. Ses tiges sont dressées ou ascendantes et creuses.
+Les feuilles sont composées, formées de 3 folioles obovales en coin. Leur longueur se situe entre 15 et 20 mm. Les folioles des feuilles supérieures sont moins de 3 fois plus longues que larges. Deux stipules ovales de même taille et apparence que les feuilles sont présents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont de type papilionacé et jaunes. Elles sont regroupées en ombelles comportant entre 6 et 12 fleurs de 10-18 mm.
+Les pédoncules sont épais et leur longueur vaut 3 à 4 celle de la feuille.
+Le calice est en cloche, ses dents sont étalées dans le bouton, lancéolées-linéaires, de même longueur que le tube. Les ailes sont obovales, dont le bord inférieur est quasiment droit et celui-ci recouvre la carène. Cette dernière est peu courbée, en un angle fortement obtus
+Les fruits sont des gousses linéaires à cylindriques de 15-30 mm et rectilignes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces voisines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lotus corniculatus ressemble fort à L. pedunculatus. La tige (pleine chez L. corniculatus) et le nombre de fleurs par inflorescence (maximum 6 fleurs par ombelle chez L. corniculatus) sont 2 critères principaux permettant de les distinguer. 
+Clé dichotomique :
+Plante dépourvue de stolons, à tige pleine ou très peu creuse. Ombelle à 3-6 fleurs. Dents du calice courbées vers l'intérieur avant la floraison : L. corniculatus
+Plante à stolons, à tige largement creuse. Ombelle à 5-12 fleurs. Dents du calice étalées avant la floraison : L. pedunculatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Synonymes
-Lotus uliginosus Schkuhr, 1796
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lotus uliginosus Schkuhr, 1796
 Lotus corniculatus proles decumbens (Poir.) Rouy
 Lotus tenuis subsp. decumbens (Poir.) Nyman
 Lotus uliginosus subsp. decumbens (Poir.) Arcang.
@@ -609,121 +811,310 @@
 Lotus pilosus Lowe
 Lotus uliginosus var. villosus Lamotte
 Lotus villosus Thuill.
-Mullaghera uliginosa (Schkur) Bubani[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lotier_des_marais</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Mullaghera uliginosa (Schkur) Bubani</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Régions d'origine et de naturalisation
-L. pedunculatus est indigène dans presque toute l’Europe, sauf les extrêmes nord et sud[2]. Cette plante est également présente en Asie occidentale et Afrique septentrionale[1]. Elle fut introduite en Amérique du Nord et du Sud comme plante fourragère.
-Régions où l'espèce devient envahissante
-Elle est considérée comme envahissante en Nouvelle-Zélande où la première observation remonte à 1867.
-Habitat
-Elle se développe dans des milieux humides : marais, pâturages inondés, fossés, sentiers forestiers, bords des étangs[2].
-Son exposition à la lumière ainsi qu’à l’humidité atmosphérique doit être importante. Le développement est optimal dans un sol plutôt acide, assez humide, argileux, riche en matière organique[1]. C’est cependant une plante peu exigeante en nutriments. Elle s’adapte bien aux sols pauvres en phosphore, ce qui la rend très appréciée pour l’Upland de Nouvelle-Zélande (terres à une altitude supérieure à 300 m avec une courte saison de pluie et des sols généralement acides).
-Cycle de vie
-Il s’agit d’une plante vivace, qui fleurit entre juin et août[2].
-Symbiotes
-Comme la plupart des plantes de la famille des Fabacées, elle établit une symbiose avec des bactéries du genre Rhizobium logées dans des nodosités sur ses racines. De plus, les plantes du genre Lotus sont capables de symbiose avec Mesorhizobium (Rhizobium à croissance rapide) et Bradyrhizobium (Rhizobium à croissance lente).
-Elle communique avec les bactéries Rhizobium à travers des flavonoïdes. Dans les racines de L. pedunculatus, on retrouve les composés suivants : catéchine, naringénine, rhamnétine, isorhoifoline, hespéridine, kaempférol, quercétine aglycone, quercétine glycoside et acide protocatéchique[4].
-Protection
-Pas de mesure de protection particulière en France, Belgique et Suisse.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lotier_des_marais</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Régions d'origine et de naturalisation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L. pedunculatus est indigène dans presque toute l’Europe, sauf les extrêmes nord et sud. Cette plante est également présente en Asie occidentale et Afrique septentrionale. Elle fut introduite en Amérique du Nord et du Sud comme plante fourragère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ecologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Régions où l'espèce devient envahissante</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est considérée comme envahissante en Nouvelle-Zélande où la première observation remonte à 1867.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ecologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe dans des milieux humides : marais, pâturages inondés, fossés, sentiers forestiers, bords des étangs.
+Son exposition à la lumière ainsi qu’à l’humidité atmosphérique doit être importante. Le développement est optimal dans un sol plutôt acide, assez humide, argileux, riche en matière organique. C’est cependant une plante peu exigeante en nutriments. Elle s’adapte bien aux sols pauvres en phosphore, ce qui la rend très appréciée pour l’Upland de Nouvelle-Zélande (terres à une altitude supérieure à 300 m avec une courte saison de pluie et des sols généralement acides).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ecologie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit d’une plante vivace, qui fleurit entre juin et août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ecologie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Symbiotes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des plantes de la famille des Fabacées, elle établit une symbiose avec des bactéries du genre Rhizobium logées dans des nodosités sur ses racines. De plus, les plantes du genre Lotus sont capables de symbiose avec Mesorhizobium (Rhizobium à croissance rapide) et Bradyrhizobium (Rhizobium à croissance lente).
+Elle communique avec les bactéries Rhizobium à travers des flavonoïdes. Dans les racines de L. pedunculatus, on retrouve les composés suivants : catéchine, naringénine, rhamnétine, isorhoifoline, hespéridine, kaempférol, quercétine aglycone, quercétine glycoside et acide protocatéchique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ecologie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de mesure de protection particulière en France, Belgique et Suisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une plante riche en tanins condensés (46-106 g/kg de poids sec[5]), qui permettent une meilleure absorption des acides aminés essentiels et une meilleure rétention de l’azote[6].
-Il a également été montré dans des expériences réalisées sur moutons, que les tanins contenus dans la plante améliorent l'assimilation intestinale de certaines protéines en minimisant leur dégradation dans le rumen [5] qu'elle peut être source de méthionine et cystéine, les tanins condensés facilitant leur assimilation[7] et qu'elle augmente la digestibilité des fibres[5].
-Les tanins ont aussi un effet antimétéorisant[8].
-En outre, elle possède un important effet anti-inflammatoire[9]. En diminuant l’activité de la myéloperoxidase et l’adénosine-déaminase, les leucocytes activés et leur migration sont inhibés. Il y a également inhibition des oxydes d’azote, du TNF-alpha et du IL-1beta.
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante riche en tanins condensés (46-106 g/kg de poids sec), qui permettent une meilleure absorption des acides aminés essentiels et une meilleure rétention de l’azote.
+Il a également été montré dans des expériences réalisées sur moutons, que les tanins contenus dans la plante améliorent l'assimilation intestinale de certaines protéines en minimisant leur dégradation dans le rumen  qu'elle peut être source de méthionine et cystéine, les tanins condensés facilitant leur assimilation et qu'elle augmente la digestibilité des fibres.
+Les tanins ont aussi un effet antimétéorisant.
+En outre, elle possède un important effet anti-inflammatoire. En diminuant l’activité de la myéloperoxidase et l’adénosine-déaminase, les leucocytes activés et leur migration sont inhibés. Il y a également inhibition des oxydes d’azote, du TNF-alpha et du IL-1beta.
 Elle a également des propriétés antihelminthiques.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lotier_des_marais</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotier_des_marais</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Agriculture
-Plante prairiale et couvre-sol
-Elle est utilisée comme plante fourragère de la même façon que lotier corniculé. Elle entre dans la composition des mélanges de semences pour :
-prairie permanente à flores complexes[10] comme seconde légumineuse en terrains humides[8] voire régulièrement inondés (fonds d'étangs des Dombes[11]).
-Couvert permanent en terrains humides[12].
-Variétés cultivées</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Plante prairiale et couvre-sol</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Elle est utilisée comme plante fourragère de la même façon que lotier corniculé. Elle entre dans la composition des mélanges de semences pour :
+prairie permanente à flores complexes comme seconde légumineuse en terrains humides voire régulièrement inondés (fonds d'étangs des Dombes).
+Couvert permanent en terrains humides.</t>
         </is>
       </c>
     </row>
